--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Crlf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H2">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I2">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J2">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.31711796820173</v>
+        <v>3.042414333333333</v>
       </c>
       <c r="N2">
-        <v>2.31711796820173</v>
+        <v>9.127243</v>
       </c>
       <c r="O2">
-        <v>0.02724367145731963</v>
+        <v>0.03442839119422979</v>
       </c>
       <c r="P2">
-        <v>0.02724367145731963</v>
+        <v>0.03442839119422979</v>
       </c>
       <c r="Q2">
-        <v>0.1873251581107932</v>
+        <v>0.1433737754583333</v>
       </c>
       <c r="R2">
-        <v>0.1873251581107932</v>
+        <v>1.290363979125</v>
       </c>
       <c r="S2">
-        <v>0.01320903048800611</v>
+        <v>0.003291668028301135</v>
       </c>
       <c r="T2">
-        <v>0.01320903048800611</v>
+        <v>0.003291668028301135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H3">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I3">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J3">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.54097053882288</v>
+        <v>5.551234333333333</v>
       </c>
       <c r="N3">
-        <v>5.54097053882288</v>
+        <v>16.653703</v>
       </c>
       <c r="O3">
-        <v>0.06514833641876774</v>
+        <v>0.06281855339191894</v>
       </c>
       <c r="P3">
-        <v>0.06514833641876774</v>
+        <v>0.06281855339191893</v>
       </c>
       <c r="Q3">
-        <v>0.4479543970209622</v>
+        <v>0.2616019179583333</v>
       </c>
       <c r="R3">
-        <v>0.4479543970209622</v>
+        <v>2.354417261625</v>
       </c>
       <c r="S3">
-        <v>0.03158701878146371</v>
+        <v>0.006006026323384039</v>
       </c>
       <c r="T3">
-        <v>0.03158701878146371</v>
+        <v>0.006006026323384038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H4">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I4">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J4">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5038079384669</v>
+        <v>20.17878</v>
       </c>
       <c r="N4">
-        <v>18.5038079384669</v>
+        <v>60.53634</v>
       </c>
       <c r="O4">
-        <v>0.2175597751616273</v>
+        <v>0.2283459304180793</v>
       </c>
       <c r="P4">
-        <v>0.2175597751616273</v>
+        <v>0.2283459304180792</v>
       </c>
       <c r="Q4">
-        <v>1.495922432648146</v>
+        <v>0.9509250075</v>
       </c>
       <c r="R4">
-        <v>1.495922432648146</v>
+        <v>8.5583250675</v>
       </c>
       <c r="S4">
-        <v>0.105483348952279</v>
+        <v>0.02183195242291316</v>
       </c>
       <c r="T4">
-        <v>0.105483348952279</v>
+        <v>0.02183195242291315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H5">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I5">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J5">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4681903282836</v>
+        <v>30.97429833333333</v>
       </c>
       <c r="N5">
-        <v>30.4681903282836</v>
+        <v>92.922895</v>
       </c>
       <c r="O5">
-        <v>0.3582318114977286</v>
+        <v>0.3505095437866988</v>
       </c>
       <c r="P5">
-        <v>0.3582318114977286</v>
+        <v>0.3505095437866987</v>
       </c>
       <c r="Q5">
-        <v>2.463171339966308</v>
+        <v>1.459663808958333</v>
       </c>
       <c r="R5">
-        <v>2.463171339966308</v>
+        <v>13.136974280625</v>
       </c>
       <c r="S5">
-        <v>0.1736878572794499</v>
+        <v>0.03351190743674551</v>
       </c>
       <c r="T5">
-        <v>0.1736878572794499</v>
+        <v>0.03351190743674551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H6">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I6">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J6">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.4909664604087</v>
+        <v>22.74695133333333</v>
       </c>
       <c r="N6">
-        <v>22.4909664604087</v>
+        <v>68.240854</v>
       </c>
       <c r="O6">
-        <v>0.2644390615470055</v>
+        <v>0.2574077207038665</v>
       </c>
       <c r="P6">
-        <v>0.2644390615470055</v>
+        <v>0.2574077207038665</v>
       </c>
       <c r="Q6">
-        <v>1.818260401964053</v>
+        <v>1.071950081583333</v>
       </c>
       <c r="R6">
-        <v>1.818260401964053</v>
+        <v>9.64755073425</v>
       </c>
       <c r="S6">
-        <v>0.1282126614860366</v>
+        <v>0.02461052448540765</v>
       </c>
       <c r="T6">
-        <v>0.1282126614860366</v>
+        <v>0.02461052448540765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08084403154327641</v>
+        <v>0.047125</v>
       </c>
       <c r="H7">
-        <v>0.08084403154327641</v>
+        <v>0.141375</v>
       </c>
       <c r="I7">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="J7">
-        <v>0.4848476648494162</v>
+        <v>0.09560911544576672</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.7305512028967</v>
+        <v>5.875665333333334</v>
       </c>
       <c r="N7">
-        <v>5.7305512028967</v>
+        <v>17.626996</v>
       </c>
       <c r="O7">
-        <v>0.06737734391755122</v>
+        <v>0.06648986050520665</v>
       </c>
       <c r="P7">
-        <v>0.06737734391755122</v>
+        <v>0.06648986050520665</v>
       </c>
       <c r="Q7">
-        <v>0.4632808622073413</v>
+        <v>0.2768907288333334</v>
       </c>
       <c r="R7">
-        <v>0.4632808622073413</v>
+        <v>2.4920165595</v>
       </c>
       <c r="S7">
-        <v>0.03266774786218073</v>
+        <v>0.006357036749015228</v>
       </c>
       <c r="T7">
-        <v>0.03266774786218073</v>
+        <v>0.006357036749015228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.0858970655152913</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H8">
-        <v>0.0858970655152913</v>
+        <v>0.155924</v>
       </c>
       <c r="I8">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989619</v>
       </c>
       <c r="J8">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31711796820173</v>
+        <v>3.042414333333333</v>
       </c>
       <c r="N8">
-        <v>2.31711796820173</v>
+        <v>9.127243</v>
       </c>
       <c r="O8">
-        <v>0.02724367145731963</v>
+        <v>0.03442839119422979</v>
       </c>
       <c r="P8">
-        <v>0.02724367145731963</v>
+        <v>0.03442839119422979</v>
       </c>
       <c r="Q8">
-        <v>0.1990336339212827</v>
+        <v>0.1581284708368889</v>
       </c>
       <c r="R8">
-        <v>0.1990336339212827</v>
+        <v>1.423156237532</v>
       </c>
       <c r="S8">
-        <v>0.01403464096931352</v>
+        <v>0.003630415884313537</v>
       </c>
       <c r="T8">
-        <v>0.01403464096931352</v>
+        <v>0.003630415884313536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.0858970655152913</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H9">
-        <v>0.0858970655152913</v>
+        <v>0.155924</v>
       </c>
       <c r="I9">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989619</v>
       </c>
       <c r="J9">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.54097053882288</v>
+        <v>5.551234333333333</v>
       </c>
       <c r="N9">
-        <v>5.54097053882288</v>
+        <v>16.653703</v>
       </c>
       <c r="O9">
-        <v>0.06514833641876774</v>
+        <v>0.06281855339191894</v>
       </c>
       <c r="P9">
-        <v>0.06514833641876774</v>
+        <v>0.06281855339191893</v>
       </c>
       <c r="Q9">
-        <v>0.4759531093915679</v>
+        <v>0.2885235540635556</v>
       </c>
       <c r="R9">
-        <v>0.4759531093915679</v>
+        <v>2.596711986572</v>
       </c>
       <c r="S9">
-        <v>0.03356131763730403</v>
+        <v>0.006624110687514292</v>
       </c>
       <c r="T9">
-        <v>0.03356131763730403</v>
+        <v>0.006624110687514289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.0858970655152913</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H10">
-        <v>0.0858970655152913</v>
+        <v>0.155924</v>
       </c>
       <c r="I10">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989619</v>
       </c>
       <c r="J10">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5038079384669</v>
+        <v>20.17878</v>
       </c>
       <c r="N10">
-        <v>18.5038079384669</v>
+        <v>60.53634</v>
       </c>
       <c r="O10">
-        <v>0.2175597751616273</v>
+        <v>0.2283459304180793</v>
       </c>
       <c r="P10">
-        <v>0.2175597751616273</v>
+        <v>0.2283459304180792</v>
       </c>
       <c r="Q10">
-        <v>1.589422802772859</v>
+        <v>1.04878536424</v>
       </c>
       <c r="R10">
-        <v>1.589422802772859</v>
+        <v>9.439068278160001</v>
       </c>
       <c r="S10">
-        <v>0.1120764262093483</v>
+        <v>0.02407869389630636</v>
       </c>
       <c r="T10">
-        <v>0.1120764262093483</v>
+        <v>0.02407869389630635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.0858970655152913</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H11">
-        <v>0.0858970655152913</v>
+        <v>0.155924</v>
       </c>
       <c r="I11">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989619</v>
       </c>
       <c r="J11">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4681903282836</v>
+        <v>30.97429833333333</v>
       </c>
       <c r="N11">
-        <v>30.4681903282836</v>
+        <v>92.922895</v>
       </c>
       <c r="O11">
-        <v>0.3582318114977286</v>
+        <v>0.3505095437866988</v>
       </c>
       <c r="P11">
-        <v>0.3582318114977286</v>
+        <v>0.3505095437866987</v>
       </c>
       <c r="Q11">
-        <v>2.617128140760941</v>
+        <v>1.609878831108889</v>
       </c>
       <c r="R11">
-        <v>2.617128140760941</v>
+        <v>14.48890947998</v>
       </c>
       <c r="S11">
-        <v>0.1845439542182787</v>
+        <v>0.03696064123902464</v>
       </c>
       <c r="T11">
-        <v>0.1845439542182787</v>
+        <v>0.03696064123902462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0858970655152913</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H12">
-        <v>0.0858970655152913</v>
+        <v>0.155924</v>
       </c>
       <c r="I12">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989619</v>
       </c>
       <c r="J12">
-        <v>0.5151523351505839</v>
+        <v>0.1054483162989618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.4909664604087</v>
+        <v>22.74695133333333</v>
       </c>
       <c r="N12">
-        <v>22.4909664604087</v>
+        <v>68.240854</v>
       </c>
       <c r="O12">
-        <v>0.2644390615470055</v>
+        <v>0.2574077207038665</v>
       </c>
       <c r="P12">
-        <v>0.2644390615470055</v>
+        <v>0.2574077207038665</v>
       </c>
       <c r="Q12">
-        <v>1.931908019551945</v>
+        <v>1.182265213232889</v>
       </c>
       <c r="R12">
-        <v>1.931908019551945</v>
+        <v>10.640386919096</v>
       </c>
       <c r="S12">
-        <v>0.1362264000609688</v>
+        <v>0.02714321075057615</v>
       </c>
       <c r="T12">
-        <v>0.1362264000609688</v>
+        <v>0.02714321075057615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05197466666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.155924</v>
+      </c>
+      <c r="I13">
+        <v>0.1054483162989619</v>
+      </c>
+      <c r="J13">
+        <v>0.1054483162989618</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.875665333333334</v>
+      </c>
+      <c r="N13">
+        <v>17.626996</v>
+      </c>
+      <c r="O13">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="P13">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="Q13">
+        <v>0.3053857471448889</v>
+      </c>
+      <c r="R13">
+        <v>2.748471724304</v>
+      </c>
+      <c r="S13">
+        <v>0.007011243841226883</v>
+      </c>
+      <c r="T13">
+        <v>0.007011243841226882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.329458</v>
+      </c>
+      <c r="I14">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J14">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.042414333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.127243</v>
+      </c>
+      <c r="O14">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="P14">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="Q14">
+        <v>0.3341159138104444</v>
+      </c>
+      <c r="R14">
+        <v>3.007043224294</v>
+      </c>
+      <c r="S14">
+        <v>0.007670849621701398</v>
+      </c>
+      <c r="T14">
+        <v>0.007670849621701398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.329458</v>
+      </c>
+      <c r="I15">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J15">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.551234333333333</v>
+      </c>
+      <c r="N15">
+        <v>16.653703</v>
+      </c>
+      <c r="O15">
+        <v>0.06281855339191894</v>
+      </c>
+      <c r="P15">
+        <v>0.06281855339191893</v>
+      </c>
+      <c r="Q15">
+        <v>0.6096328536637777</v>
+      </c>
+      <c r="R15">
+        <v>5.486695682973999</v>
+      </c>
+      <c r="S15">
+        <v>0.01399634603324109</v>
+      </c>
+      <c r="T15">
+        <v>0.01399634603324108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.329458</v>
+      </c>
+      <c r="I16">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J16">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.17878</v>
+      </c>
+      <c r="N16">
+        <v>60.53634</v>
+      </c>
+      <c r="O16">
+        <v>0.2283459304180793</v>
+      </c>
+      <c r="P16">
+        <v>0.2283459304180792</v>
+      </c>
+      <c r="Q16">
+        <v>2.21602016708</v>
+      </c>
+      <c r="R16">
+        <v>19.94418150372</v>
+      </c>
+      <c r="S16">
+        <v>0.05087682674693632</v>
+      </c>
+      <c r="T16">
+        <v>0.0508768267469363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.329458</v>
+      </c>
+      <c r="I17">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J17">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.97429833333333</v>
+      </c>
+      <c r="N17">
+        <v>92.922895</v>
+      </c>
+      <c r="O17">
+        <v>0.3505095437866988</v>
+      </c>
+      <c r="P17">
+        <v>0.3505095437866987</v>
+      </c>
+      <c r="Q17">
+        <v>3.401576793434444</v>
+      </c>
+      <c r="R17">
+        <v>30.61419114090999</v>
+      </c>
+      <c r="S17">
+        <v>0.07809560389245129</v>
+      </c>
+      <c r="T17">
+        <v>0.07809560389245128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.329458</v>
+      </c>
+      <c r="I18">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J18">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>22.74695133333333</v>
+      </c>
+      <c r="N18">
+        <v>68.240854</v>
+      </c>
+      <c r="O18">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="P18">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="Q18">
+        <v>2.498055030792444</v>
+      </c>
+      <c r="R18">
+        <v>22.482495277132</v>
+      </c>
+      <c r="S18">
+        <v>0.05735196587737177</v>
+      </c>
+      <c r="T18">
+        <v>0.05735196587737177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1098193333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.329458</v>
+      </c>
+      <c r="I19">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="J19">
+        <v>0.2228059271903194</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.875665333333334</v>
+      </c>
+      <c r="N19">
+        <v>17.626996</v>
+      </c>
+      <c r="O19">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="P19">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="Q19">
+        <v>0.6452616497964445</v>
+      </c>
+      <c r="R19">
+        <v>5.807354848168</v>
+      </c>
+      <c r="S19">
+        <v>0.01481433501861757</v>
+      </c>
+      <c r="T19">
+        <v>0.01481433501861757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.080057</v>
+      </c>
+      <c r="I20">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J20">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.042414333333333</v>
+      </c>
+      <c r="N20">
+        <v>9.127243</v>
+      </c>
+      <c r="O20">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="P20">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="Q20">
+        <v>0.08118885476122222</v>
+      </c>
+      <c r="R20">
+        <v>0.730699692851</v>
+      </c>
+      <c r="S20">
+        <v>0.001863986329561124</v>
+      </c>
+      <c r="T20">
+        <v>0.001863986329561124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.0858970655152913</v>
-      </c>
-      <c r="H13">
-        <v>0.0858970655152913</v>
-      </c>
-      <c r="I13">
-        <v>0.5151523351505839</v>
-      </c>
-      <c r="J13">
-        <v>0.5151523351505839</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.7305512028967</v>
-      </c>
-      <c r="N13">
-        <v>5.7305512028967</v>
-      </c>
-      <c r="O13">
-        <v>0.06737734391755122</v>
-      </c>
-      <c r="P13">
-        <v>0.06737734391755122</v>
-      </c>
-      <c r="Q13">
-        <v>0.4922375321139492</v>
-      </c>
-      <c r="R13">
-        <v>0.4922375321139492</v>
-      </c>
-      <c r="S13">
-        <v>0.0347095960553705</v>
-      </c>
-      <c r="T13">
-        <v>0.0347095960553705</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.080057</v>
+      </c>
+      <c r="I21">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J21">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.551234333333333</v>
+      </c>
+      <c r="N21">
+        <v>16.653703</v>
+      </c>
+      <c r="O21">
+        <v>0.06281855339191894</v>
+      </c>
+      <c r="P21">
+        <v>0.06281855339191893</v>
+      </c>
+      <c r="Q21">
+        <v>0.1481383890078889</v>
+      </c>
+      <c r="R21">
+        <v>1.333245501071</v>
+      </c>
+      <c r="S21">
+        <v>0.003401057113146992</v>
+      </c>
+      <c r="T21">
+        <v>0.003401057113146992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.080057</v>
+      </c>
+      <c r="I22">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J22">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>20.17878</v>
+      </c>
+      <c r="N22">
+        <v>60.53634</v>
+      </c>
+      <c r="O22">
+        <v>0.2283459304180793</v>
+      </c>
+      <c r="P22">
+        <v>0.2283459304180792</v>
+      </c>
+      <c r="Q22">
+        <v>0.53848419682</v>
+      </c>
+      <c r="R22">
+        <v>4.84635777138</v>
+      </c>
+      <c r="S22">
+        <v>0.01236286907247504</v>
+      </c>
+      <c r="T22">
+        <v>0.01236286907247504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.080057</v>
+      </c>
+      <c r="I23">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J23">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.97429833333333</v>
+      </c>
+      <c r="N23">
+        <v>92.922895</v>
+      </c>
+      <c r="O23">
+        <v>0.3505095437866988</v>
+      </c>
+      <c r="P23">
+        <v>0.3505095437866987</v>
+      </c>
+      <c r="Q23">
+        <v>0.8265698005572222</v>
+      </c>
+      <c r="R23">
+        <v>7.439128205015</v>
+      </c>
+      <c r="S23">
+        <v>0.018976925012651</v>
+      </c>
+      <c r="T23">
+        <v>0.018976925012651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.080057</v>
+      </c>
+      <c r="I24">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J24">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.74695133333333</v>
+      </c>
+      <c r="N24">
+        <v>68.240854</v>
+      </c>
+      <c r="O24">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="P24">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="Q24">
+        <v>0.6070175609642222</v>
+      </c>
+      <c r="R24">
+        <v>5.463158048678</v>
+      </c>
+      <c r="S24">
+        <v>0.0139363024490064</v>
+      </c>
+      <c r="T24">
+        <v>0.0139363024490064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02668566666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.080057</v>
+      </c>
+      <c r="I25">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="J25">
+        <v>0.05414096520064896</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.875665333333334</v>
+      </c>
+      <c r="N25">
+        <v>17.626996</v>
+      </c>
+      <c r="O25">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="P25">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="Q25">
+        <v>0.1567960465302222</v>
+      </c>
+      <c r="R25">
+        <v>1.411164418772</v>
+      </c>
+      <c r="S25">
+        <v>0.003599825223808397</v>
+      </c>
+      <c r="T25">
+        <v>0.003599825223808397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.449153</v>
+      </c>
+      <c r="I26">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J26">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.042414333333333</v>
+      </c>
+      <c r="N26">
+        <v>9.127243</v>
+      </c>
+      <c r="O26">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="P26">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="Q26">
+        <v>0.4555031750198889</v>
+      </c>
+      <c r="R26">
+        <v>4.099528575179</v>
+      </c>
+      <c r="S26">
+        <v>0.01045773701089683</v>
+      </c>
+      <c r="T26">
+        <v>0.01045773701089683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.449153</v>
+      </c>
+      <c r="I27">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J27">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.551234333333333</v>
+      </c>
+      <c r="N27">
+        <v>16.653703</v>
+      </c>
+      <c r="O27">
+        <v>0.06281855339191894</v>
+      </c>
+      <c r="P27">
+        <v>0.06281855339191893</v>
+      </c>
+      <c r="Q27">
+        <v>0.8311178515065556</v>
+      </c>
+      <c r="R27">
+        <v>7.480060663559001</v>
+      </c>
+      <c r="S27">
+        <v>0.01908134211301087</v>
+      </c>
+      <c r="T27">
+        <v>0.01908134211301086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.449153</v>
+      </c>
+      <c r="I28">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J28">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.17878</v>
+      </c>
+      <c r="N28">
+        <v>60.53634</v>
+      </c>
+      <c r="O28">
+        <v>0.2283459304180793</v>
+      </c>
+      <c r="P28">
+        <v>0.2283459304180792</v>
+      </c>
+      <c r="Q28">
+        <v>3.02111985778</v>
+      </c>
+      <c r="R28">
+        <v>27.19007872002</v>
+      </c>
+      <c r="S28">
+        <v>0.06936082706708196</v>
+      </c>
+      <c r="T28">
+        <v>0.06936082706708195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.449153</v>
+      </c>
+      <c r="I29">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J29">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>30.97429833333333</v>
+      </c>
+      <c r="N29">
+        <v>92.922895</v>
+      </c>
+      <c r="O29">
+        <v>0.3505095437866988</v>
+      </c>
+      <c r="P29">
+        <v>0.3505095437866987</v>
+      </c>
+      <c r="Q29">
+        <v>4.637399673103888</v>
+      </c>
+      <c r="R29">
+        <v>41.736597057935</v>
+      </c>
+      <c r="S29">
+        <v>0.1064684262488881</v>
+      </c>
+      <c r="T29">
+        <v>0.1064684262488881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.449153</v>
+      </c>
+      <c r="I30">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J30">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>22.74695133333333</v>
+      </c>
+      <c r="N30">
+        <v>68.240854</v>
+      </c>
+      <c r="O30">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="P30">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="Q30">
+        <v>3.405620477406889</v>
+      </c>
+      <c r="R30">
+        <v>30.650584296662</v>
+      </c>
+      <c r="S30">
+        <v>0.07818844140897827</v>
+      </c>
+      <c r="T30">
+        <v>0.07818844140897827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.449153</v>
+      </c>
+      <c r="I31">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="J31">
+        <v>0.3037532875671969</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.875665333333334</v>
+      </c>
+      <c r="N31">
+        <v>17.626996</v>
+      </c>
+      <c r="O31">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="P31">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="Q31">
+        <v>0.879690903820889</v>
+      </c>
+      <c r="R31">
+        <v>7.917218134388001</v>
+      </c>
+      <c r="S31">
+        <v>0.02019651371834084</v>
+      </c>
+      <c r="T31">
+        <v>0.02019651371834084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.10757</v>
+      </c>
+      <c r="H32">
+        <v>0.32271</v>
+      </c>
+      <c r="I32">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J32">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.042414333333333</v>
+      </c>
+      <c r="N32">
+        <v>9.127243</v>
+      </c>
+      <c r="O32">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="P32">
+        <v>0.03442839119422979</v>
+      </c>
+      <c r="Q32">
+        <v>0.3272725098366667</v>
+      </c>
+      <c r="R32">
+        <v>2.94545258853</v>
+      </c>
+      <c r="S32">
+        <v>0.007513734319455768</v>
+      </c>
+      <c r="T32">
+        <v>0.007513734319455768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.10757</v>
+      </c>
+      <c r="H33">
+        <v>0.32271</v>
+      </c>
+      <c r="I33">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J33">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.551234333333333</v>
+      </c>
+      <c r="N33">
+        <v>16.653703</v>
+      </c>
+      <c r="O33">
+        <v>0.06281855339191894</v>
+      </c>
+      <c r="P33">
+        <v>0.06281855339191893</v>
+      </c>
+      <c r="Q33">
+        <v>0.5971462772366667</v>
+      </c>
+      <c r="R33">
+        <v>5.37431649513</v>
+      </c>
+      <c r="S33">
+        <v>0.01370967112162167</v>
+      </c>
+      <c r="T33">
+        <v>0.01370967112162166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.10757</v>
+      </c>
+      <c r="H34">
+        <v>0.32271</v>
+      </c>
+      <c r="I34">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J34">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.17878</v>
+      </c>
+      <c r="N34">
+        <v>60.53634</v>
+      </c>
+      <c r="O34">
+        <v>0.2283459304180793</v>
+      </c>
+      <c r="P34">
+        <v>0.2283459304180792</v>
+      </c>
+      <c r="Q34">
+        <v>2.1706313646</v>
+      </c>
+      <c r="R34">
+        <v>19.5356822814</v>
+      </c>
+      <c r="S34">
+        <v>0.04983476121236644</v>
+      </c>
+      <c r="T34">
+        <v>0.04983476121236642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.10757</v>
+      </c>
+      <c r="H35">
+        <v>0.32271</v>
+      </c>
+      <c r="I35">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J35">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>30.97429833333333</v>
+      </c>
+      <c r="N35">
+        <v>92.922895</v>
+      </c>
+      <c r="O35">
+        <v>0.3505095437866988</v>
+      </c>
+      <c r="P35">
+        <v>0.3505095437866987</v>
+      </c>
+      <c r="Q35">
+        <v>3.331905271716667</v>
+      </c>
+      <c r="R35">
+        <v>29.98714744545</v>
+      </c>
+      <c r="S35">
+        <v>0.07649603995693824</v>
+      </c>
+      <c r="T35">
+        <v>0.07649603995693822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.10757</v>
+      </c>
+      <c r="H36">
+        <v>0.32271</v>
+      </c>
+      <c r="I36">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J36">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>22.74695133333333</v>
+      </c>
+      <c r="N36">
+        <v>68.240854</v>
+      </c>
+      <c r="O36">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="P36">
+        <v>0.2574077207038665</v>
+      </c>
+      <c r="Q36">
+        <v>2.446889554926666</v>
+      </c>
+      <c r="R36">
+        <v>22.02200599434</v>
+      </c>
+      <c r="S36">
+        <v>0.05617727573252628</v>
+      </c>
+      <c r="T36">
+        <v>0.05617727573252628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.10757</v>
+      </c>
+      <c r="H37">
+        <v>0.32271</v>
+      </c>
+      <c r="I37">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="J37">
+        <v>0.2182423882971061</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.875665333333334</v>
+      </c>
+      <c r="N37">
+        <v>17.626996</v>
+      </c>
+      <c r="O37">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="P37">
+        <v>0.06648986050520665</v>
+      </c>
+      <c r="Q37">
+        <v>0.6320453199066667</v>
+      </c>
+      <c r="R37">
+        <v>5.688407879160001</v>
+      </c>
+      <c r="S37">
+        <v>0.01451090595419773</v>
+      </c>
+      <c r="T37">
+        <v>0.01451090595419773</v>
       </c>
     </row>
   </sheetData>
